--- a/Medecin_montant_million_an.xlsx
+++ b/Medecin_montant_million_an.xlsx
@@ -11,8 +11,9 @@
     <sheet name="2018" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2018'!$A$1:$D$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2018'!$A$1:$D$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2018'!$A$1:$D$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2018'!$A$1:$D$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'2018'!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Spécialité</t>
   </si>
@@ -99,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">Urologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
@@ -180,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -217,13 +215,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
@@ -258,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,19 +290,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,17 +379,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="10.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -760,24 +742,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="n">
-        <v>166</v>
-      </c>
-      <c r="C26" s="11" t="n">
-        <v>202</v>
-      </c>
-      <c r="D26" s="11" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
